--- a/biology/Zoologie/Heteroscleromorpha/Heteroscleromorpha.xlsx
+++ b/biology/Zoologie/Heteroscleromorpha/Heteroscleromorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Heteroscleromorpha sont une sous-classe d'animaux de l'embranchement des éponges.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2015, Morrow &amp; Cárdenas proposent une révision en profondeur des Demospongiae, prenant en compte les résultats de phylogénétique moléculaire de ces vingt dernières années. Morrow &amp; Cárdenas (2015) proposent de regrouper les ordres dans trois sous-classes: Heteroscleromorpha, Verongimorpha et Keratosa. De 13 ordres auparavant, on passe à 22 ordres: Morrow &amp; Cárdenas (2015) proposent l'abandon de cinq ordres, considérés comme polyphylétiques (Hadromerida, Halichondrida, Halisarcida, Lithistida, Verticillitida). Ils ressuscitent ou élèvent six ordres supplémentaires (Axinellida, Merliida, Spongillida, Sphaerocladina, Suberitida, Tetractinellida). Enfin, ils créent sept nouveaux ordres (Bubarida, Desmacellida, Polymastiida, Scopalinida, Clionaida, Tethyida, Trachycladida). Ces propositions ont été rapidement adoptées par le World Porifera Database du World Register of Marine Species                               (2 août 2015)[2][3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, Morrow &amp; Cárdenas proposent une révision en profondeur des Demospongiae, prenant en compte les résultats de phylogénétique moléculaire de ces vingt dernières années. Morrow &amp; Cárdenas (2015) proposent de regrouper les ordres dans trois sous-classes: Heteroscleromorpha, Verongimorpha et Keratosa. De 13 ordres auparavant, on passe à 22 ordres: Morrow &amp; Cárdenas (2015) proposent l'abandon de cinq ordres, considérés comme polyphylétiques (Hadromerida, Halichondrida, Halisarcida, Lithistida, Verticillitida). Ils ressuscitent ou élèvent six ordres supplémentaires (Axinellida, Merliida, Spongillida, Sphaerocladina, Suberitida, Tetractinellida). Enfin, ils créent sept nouveaux ordres (Bubarida, Desmacellida, Polymastiida, Scopalinida, Clionaida, Tethyida, Trachycladida). Ces propositions ont été rapidement adoptées par le World Porifera Database du World Register of Marine Species                               (2 août 2015).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La sous-classe Heteroscleromorpha comprend les ordres suivants[3],[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La sous-classe Heteroscleromorpha comprend les ordres suivants, :
 ordre Agelasida Verrill, 1907
 ordre Axinellida Lévi, 1953
 ordre Biemnida Morrow et al., 2013
